--- a/src/test/resources/CalculatorTest.xlsx
+++ b/src/test/resources/CalculatorTest.xlsx
@@ -2,16 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="Calculator" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Initial Deposit Amount</t>
   </si>
@@ -59,12 +61,19 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -75,10 +84,9 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +97,32 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -112,20 +146,38 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -337,14 +389,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="21.13"/>
-    <col customWidth="1" min="4" max="4" width="19.0"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -379,16 +428,18 @@
       <c r="C2" s="3">
         <v>2.0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" t="s" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3">
@@ -400,16 +451,18 @@
       <c r="C3" s="3">
         <v>4.0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" t="s" s="13">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3">
@@ -421,16 +474,18 @@
       <c r="C4" s="3">
         <v>2.0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" t="s" s="14">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
@@ -442,16 +497,18 @@
       <c r="C5" s="3">
         <v>4.0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" t="s" s="15">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
@@ -463,16 +520,18 @@
       <c r="C6" s="3">
         <v>2.0</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" t="s" s="16">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/src/test/resources/CalculatorTest.xlsx
+++ b/src/test/resources/CalculatorTest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>Initial Deposit Amount</t>
   </si>
@@ -107,22 +107,22 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -162,9 +162,6 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -172,12 +169,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -437,7 +444,7 @@
       <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s" s="12">
+      <c r="G2" t="s" s="21">
         <v>16</v>
       </c>
     </row>
@@ -460,7 +467,7 @@
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s" s="13">
+      <c r="G3" t="s" s="22">
         <v>16</v>
       </c>
     </row>
@@ -483,7 +490,7 @@
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s" s="14">
+      <c r="G4" t="s" s="23">
         <v>16</v>
       </c>
     </row>
@@ -506,7 +513,7 @@
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s" s="15">
+      <c r="G5" t="s" s="24">
         <v>16</v>
       </c>
     </row>
@@ -529,7 +536,7 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s" s="16">
+      <c r="G6" t="s" s="25">
         <v>17</v>
       </c>
     </row>
